--- a/User_tests/User_satisfaction_survey_results.xlsx
+++ b/User_tests/User_satisfaction_survey_results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="45">
   <si>
     <t xml:space="preserve">Yes/No</t>
   </si>
@@ -103,15 +103,18 @@
     <t xml:space="preserve">Total average</t>
   </si>
   <si>
-    <t xml:space="preserve">Variance</t>
-  </si>
-  <si>
     <t xml:space="preserve">T-Test 2-Tailed</t>
   </si>
   <si>
     <t xml:space="preserve">T-Test 1-Tailed</t>
   </si>
   <si>
+    <t xml:space="preserve">Effect size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T(19)</t>
+  </si>
+  <si>
     <t xml:space="preserve">VERSION 2</t>
   </si>
   <si>
@@ -128,6 +131,9 @@
   </si>
   <si>
     <t xml:space="preserve">The chatbot asked for a phone number, which was kind of weird.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STDEV</t>
   </si>
   <si>
     <t xml:space="preserve">VERSION 3</t>
@@ -163,7 +169,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -185,14 +190,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -200,7 +203,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -283,13 +285,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D55" activeCellId="0" sqref="D55:N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
@@ -1423,115 +1428,25 @@
         <f aca="false">AVERAGE(N5:N24)</f>
         <v>3.8</v>
       </c>
-      <c r="O25" s="0" t="n">
-        <f aca="false">AVERAGE(C25:N25)</f>
-        <v>3.7125</v>
-      </c>
+      <c r="R25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="0" t="n">
-        <f aca="false">VAR(C5:C24)</f>
-        <v>1.08157894736842</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <f aca="false">VAR(D5:D24)</f>
-        <v>0.463157894736842</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <f aca="false">VAR(E5:E24)</f>
-        <v>0.365789473684211</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <f aca="false">VAR(F5:F24)</f>
-        <v>0.747368421052632</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <f aca="false">VAR(G5:G24)</f>
-        <v>0.871052631578947</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <f aca="false">VAR(H5:H24)</f>
-        <v>4.19736842105263</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <f aca="false">VAR(I5:I24)</f>
-        <v>1.22105263157895</v>
-      </c>
-      <c r="J26" s="0" t="n">
-        <f aca="false">VAR(J5:J24)</f>
-        <v>0.302631578947368</v>
-      </c>
-      <c r="K26" s="0" t="n">
-        <f aca="false">VAR(K5:K24)</f>
-        <v>2.06315789473684</v>
-      </c>
-      <c r="L26" s="0" t="n">
-        <f aca="false">VAR(L5:L24)</f>
-        <v>0.786842105263158</v>
-      </c>
-      <c r="M26" s="0" t="n">
-        <f aca="false">VAR(M5:M24)</f>
-        <v>0.892105263157895</v>
-      </c>
-      <c r="N26" s="0" t="n">
-        <f aca="false">VAR(N5:N24)</f>
-        <v>1.11578947368421</v>
-      </c>
+        <f aca="false">TTEST(C5:C24, C34:C53, 2, 3)</f>
+        <v>0.886190268469501</v>
+      </c>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="0" t="n">
-        <f aca="false">TTEST(C5:C24, C33:C52, 2, 3)</f>
-        <v>0.886190268469501</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <f aca="false">TTEST(D5:D24, D33:D52, 2, 3)</f>
-        <v>0.854324580229163</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <f aca="false">TTEST(E5:E24, E33:E52, 2, 3)</f>
-        <v>1</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <f aca="false">TTEST(F5:F24, F33:F52, 2, 3)</f>
-        <v>0.0860717473122317</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <f aca="false">TTEST(G5:G24, G33:G52, 2, 3)</f>
-        <v>0.488762001621795</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <f aca="false">TTEST(H5:H24, H33:H52, 2, 3)</f>
-        <v>0.656223555270419</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <f aca="false">TTEST(I5:I24, I33:I52, 2, 3)</f>
-        <v>0.0942500489243747</v>
-      </c>
-      <c r="J27" s="0" t="n">
-        <f aca="false">TTEST(J5:J24, J33:J52, 2, 3)</f>
-        <v>1</v>
-      </c>
-      <c r="K27" s="0" t="n">
-        <f aca="false">TTEST(K5:K24, K33:K52, 2, 3)</f>
-        <v>0.642029012583741</v>
-      </c>
-      <c r="L27" s="0" t="n">
-        <f aca="false">TTEST(L5:L24, L33:L52, 2, 3)</f>
-        <v>0.261160603139656</v>
-      </c>
-      <c r="M27" s="0" t="n">
-        <f aca="false">TTEST(M5:M24, M33:M52, 2, 3)</f>
-        <v>0.255375774257318</v>
-      </c>
-      <c r="N27" s="0" t="n">
-        <f aca="false">TTEST(N5:N24, N33:N52, 2, 3)</f>
-        <v>0.378101339869678</v>
+        <f aca="false">TTEST(C34:C53, C5:C24, 1, 3)</f>
+        <v>0.443095134234751</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1539,119 +1454,33 @@
         <v>29</v>
       </c>
       <c r="C28" s="0" t="n">
-        <f aca="false">TTEST(C33:C52, C5:C24, 1, 3)</f>
-        <v>0.443095134234751</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <f aca="false">TTEST(D5:D24, D33:D52, 1, 3)</f>
-        <v>0.427162290114581</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <f aca="false">TTEST(E5:E24, E33:E52, 1, 3)</f>
-        <v>0.5</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <f aca="false">TTEST(F5:F24, F33:F52, 1, 3)</f>
-        <v>0.0430358736561159</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <f aca="false">TTEST(G5:G24, G33:G52, 1, 3)</f>
-        <v>0.244381000810898</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <f aca="false">TTEST(H5:H24, H33:H52, 1, 3)</f>
-        <v>0.32811177763521</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <f aca="false">TTEST(I5:I24, I33:I52, 1, 3)</f>
-        <v>0.0471250244621874</v>
-      </c>
-      <c r="J28" s="0" t="n">
-        <f aca="false">TTEST(J5:J24, J33:J52, 1, 3)</f>
-        <v>0.5</v>
-      </c>
-      <c r="K28" s="0" t="n">
-        <f aca="false">TTEST(K5:K24, K33:K52, 1, 3)</f>
-        <v>0.321014506291871</v>
-      </c>
-      <c r="L28" s="0" t="n">
-        <f aca="false">TTEST(L5:L24, L33:L52, 1, 3)</f>
-        <v>0.130580301569828</v>
-      </c>
-      <c r="M28" s="0" t="n">
-        <f aca="false">TTEST(M5:M24, M33:M52, 1, 3)</f>
-        <v>0.127687887128659</v>
-      </c>
-      <c r="N28" s="0" t="n">
-        <f aca="false">TTEST(N5:N24, N33:N52, 1, 3)</f>
-        <v>0.189050669934839</v>
-      </c>
-      <c r="O28" s="0" t="n">
-        <f aca="false">AVERAGE(C28:N28)</f>
-        <v>0.275103705486578</v>
+        <f aca="false">(3.2-3.1)/1.1516578439</f>
+        <v>0.0868313453771633</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <f aca="false">TINV(C26, 19)</f>
+        <v>0.145061279657457</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
-      </c>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J33" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K33" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="L33" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="M33" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="N33" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="O33" s="0" t="s">
-        <v>20</v>
+      <c r="A33" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>21</v>
@@ -1663,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>3</v>
@@ -1672,16 +1501,16 @@
         <v>3</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>3</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L34" s="0" t="n">
         <v>3</v>
@@ -1690,7 +1519,7 @@
         <v>5</v>
       </c>
       <c r="N34" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O34" s="0" t="s">
         <v>20</v>
@@ -1698,93 +1527,93 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N35" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>2</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M36" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N36" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O36" s="0" t="s">
         <v>32</v>
@@ -1792,90 +1621,90 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N37" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N38" s="0" t="n">
         <v>5</v>
@@ -1886,46 +1715,46 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>7</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L39" s="0" t="n">
         <v>3</v>
       </c>
       <c r="M39" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N39" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O39" s="0" t="s">
         <v>20</v>
@@ -1933,28 +1762,28 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>5</v>
@@ -1969,7 +1798,7 @@
         <v>3</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N40" s="0" t="n">
         <v>4</v>
@@ -1980,28 +1809,28 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>5</v>
@@ -2013,74 +1842,74 @@
         <v>3</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M41" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N41" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K42" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L42" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M42" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N42" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>5</v>
@@ -2098,10 +1927,10 @@
         <v>6</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>4</v>
@@ -2110,7 +1939,7 @@
         <v>3</v>
       </c>
       <c r="M43" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N43" s="0" t="n">
         <v>5</v>
@@ -2121,46 +1950,46 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>3</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L44" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M44" s="0" t="n">
         <v>4</v>
       </c>
       <c r="N44" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O44" s="0" t="s">
         <v>20</v>
@@ -2168,43 +1997,43 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G45" s="0" t="n">
         <v>3</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>3</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M45" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N45" s="0" t="n">
         <v>3</v>
@@ -2215,16 +2044,16 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>3</v>
@@ -2236,7 +2065,7 @@
         <v>3</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>5</v>
@@ -2245,16 +2074,16 @@
         <v>3</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M46" s="0" t="n">
         <v>5</v>
       </c>
       <c r="N46" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O46" s="0" t="s">
         <v>20</v>
@@ -2262,7 +2091,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>19</v>
@@ -2271,7 +2100,7 @@
         <v>5</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>3</v>
@@ -2280,10 +2109,10 @@
         <v>4</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I47" s="0" t="n">
         <v>5</v>
@@ -2292,13 +2121,13 @@
         <v>3</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L47" s="0" t="n">
         <v>5</v>
       </c>
       <c r="M47" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N47" s="0" t="n">
         <v>5</v>
@@ -2309,140 +2138,140 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G48" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I48" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L48" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M48" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N48" s="0" t="n">
         <v>5</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I49" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J49" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K49" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L49" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M49" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N49" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J50" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K50" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L50" s="0" t="n">
         <v>4</v>
       </c>
       <c r="M50" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N50" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O50" s="0" t="s">
         <v>20</v>
@@ -2450,46 +2279,46 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H51" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M51" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="I51" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="J51" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K51" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L51" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="M51" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="N51" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O51" s="0" t="s">
         <v>20</v>
@@ -2497,216 +2326,172 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J52" s="0" t="n">
         <v>3</v>
       </c>
       <c r="K52" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L52" s="0" t="n">
         <v>3</v>
       </c>
       <c r="M52" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N52" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
-        <v>26</v>
+      <c r="A53" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="C53" s="0" t="n">
-        <f aca="false">AVERAGE(C33:C52)</f>
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D53" s="0" t="n">
-        <f aca="false">AVERAGE(D33:D52)</f>
-        <v>4.45</v>
+        <v>4</v>
       </c>
       <c r="E53" s="0" t="n">
-        <f aca="false">AVERAGE(E33:E52)</f>
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="F53" s="0" t="n">
-        <f aca="false">AVERAGE(F33:F52)</f>
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="G53" s="0" t="n">
-        <f aca="false">AVERAGE(G33:G52)</f>
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="H53" s="0" t="n">
-        <f aca="false">AVERAGE(H33:H52)</f>
         <v>5</v>
       </c>
       <c r="I53" s="0" t="n">
-        <f aca="false">AVERAGE(I33:I52)</f>
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="J53" s="0" t="n">
-        <f aca="false">AVERAGE(J33:J52)</f>
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K53" s="0" t="n">
-        <f aca="false">AVERAGE(K33:K52)</f>
         <v>4</v>
       </c>
       <c r="L53" s="0" t="n">
-        <f aca="false">AVERAGE(L33:L52)</f>
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M53" s="0" t="n">
-        <f aca="false">AVERAGE(M33:M52)</f>
-        <v>4.85</v>
+        <v>4</v>
       </c>
       <c r="N53" s="0" t="n">
-        <f aca="false">AVERAGE(N33:N52)</f>
-        <v>4.1</v>
-      </c>
-      <c r="O53" s="0" t="n">
-        <f aca="false">AVERAGE(C53:N53)</f>
-        <v>3.9125</v>
+        <v>4</v>
+      </c>
+      <c r="O53" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C54" s="0" t="n">
-        <f aca="false">VAR(C33:C52)</f>
-        <v>1.32631578947368</v>
+        <f aca="false">AVERAGE(C34:C53)</f>
+        <v>3.2</v>
       </c>
       <c r="D54" s="0" t="n">
-        <f aca="false">VAR(D33:D52)</f>
-        <v>0.997368421052632</v>
+        <f aca="false">AVERAGE(D34:D53)</f>
+        <v>4.45</v>
       </c>
       <c r="E54" s="0" t="n">
-        <f aca="false">VAR(E33:E52)</f>
-        <v>0.471052631578948</v>
+        <f aca="false">AVERAGE(E34:E53)</f>
+        <v>3.45</v>
       </c>
       <c r="F54" s="0" t="n">
-        <f aca="false">VAR(F33:F52)</f>
-        <v>0.555263157894737</v>
+        <f aca="false">AVERAGE(F34:F53)</f>
+        <v>3.15</v>
       </c>
       <c r="G54" s="0" t="n">
-        <f aca="false">VAR(G33:G52)</f>
-        <v>0.76578947368421</v>
+        <f aca="false">AVERAGE(G34:G53)</f>
+        <v>3.35</v>
       </c>
       <c r="H54" s="0" t="n">
-        <f aca="false">VAR(H33:H52)</f>
-        <v>2</v>
+        <f aca="false">AVERAGE(H34:H53)</f>
+        <v>5</v>
       </c>
       <c r="I54" s="0" t="n">
-        <f aca="false">VAR(I33:I52)</f>
-        <v>0.828947368421053</v>
+        <f aca="false">AVERAGE(I34:I53)</f>
+        <v>4.75</v>
       </c>
       <c r="J54" s="0" t="n">
-        <f aca="false">VAR(J33:J52)</f>
-        <v>0.618421052631579</v>
+        <f aca="false">AVERAGE(J34:J53)</f>
+        <v>3.25</v>
       </c>
       <c r="K54" s="0" t="n">
-        <f aca="false">VAR(K33:K52)</f>
-        <v>1.57894736842105</v>
+        <f aca="false">AVERAGE(K34:K53)</f>
+        <v>4</v>
       </c>
       <c r="L54" s="0" t="n">
-        <f aca="false">VAR(L33:L52)</f>
-        <v>1.09473684210526</v>
+        <f aca="false">AVERAGE(L34:L53)</f>
+        <v>3.4</v>
       </c>
       <c r="M54" s="0" t="n">
-        <f aca="false">VAR(M33:M52)</f>
-        <v>1.50263157894737</v>
+        <f aca="false">AVERAGE(M34:M53)</f>
+        <v>4.85</v>
       </c>
       <c r="N54" s="0" t="n">
-        <f aca="false">VAR(N33:N52)</f>
-        <v>1.14736842105263</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
-        <v>36</v>
-      </c>
+        <f aca="false">AVERAGE(N34:N53)</f>
+        <v>4.1</v>
+      </c>
+      <c r="R54" s="4"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <f aca="false">STDEV(C34:C53)</f>
+        <v>1.15165784392487</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D59" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E59" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G59" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H59" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="I59" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J59" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="K59" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L59" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="M59" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="N59" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="O59" s="0" t="s">
-        <v>20</v>
+      <c r="A59" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>19</v>
@@ -2715,57 +2500,57 @@
         <v>3</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>6</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K60" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L60" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M60" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N60" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>3</v>
@@ -2774,72 +2559,72 @@
         <v>3</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J61" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K61" s="0" t="n">
         <v>5</v>
       </c>
       <c r="L61" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M61" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N61" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O61" s="0" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I62" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J62" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K62" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L62" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M62" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N62" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O62" s="0" t="s">
         <v>20</v>
@@ -2847,25 +2632,25 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>4</v>
@@ -2874,19 +2659,19 @@
         <v>5</v>
       </c>
       <c r="J63" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K63" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L63" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M63" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N63" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O63" s="0" t="s">
         <v>20</v>
@@ -2894,7 +2679,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>21</v>
@@ -2903,51 +2688,51 @@
         <v>3</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G64" s="0" t="n">
         <v>3</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I64" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J64" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K64" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L64" s="0" t="n">
         <v>3</v>
       </c>
       <c r="M64" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N64" s="0" t="n">
         <v>3</v>
       </c>
       <c r="O64" s="0" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>5</v>
@@ -2959,42 +2744,42 @@
         <v>3</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J65" s="0" t="n">
         <v>3</v>
       </c>
       <c r="K65" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L65" s="0" t="n">
         <v>3</v>
       </c>
       <c r="M65" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N65" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O65" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>5</v>
@@ -3006,160 +2791,160 @@
         <v>3</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J66" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K66" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L66" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M66" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N66" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O66" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G67" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J67" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K67" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L67" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M67" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N67" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O67" s="0" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J68" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K68" s="0" t="n">
         <v>5</v>
       </c>
       <c r="L68" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M68" s="0" t="n">
         <v>4</v>
       </c>
       <c r="N68" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O68" s="0" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I69" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J69" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K69" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L69" s="0" t="n">
         <v>3</v>
@@ -3168,15 +2953,15 @@
         <v>4</v>
       </c>
       <c r="N69" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O69" s="0" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>19</v>
@@ -3185,22 +2970,22 @@
         <v>3</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J70" s="0" t="n">
         <v>3</v>
@@ -3212,18 +2997,18 @@
         <v>3</v>
       </c>
       <c r="M70" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N70" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O70" s="0" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>19</v>
@@ -3232,16 +3017,16 @@
         <v>3</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H71" s="0" t="n">
         <v>5</v>
@@ -3250,7 +3035,7 @@
         <v>4</v>
       </c>
       <c r="J71" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K71" s="0" t="n">
         <v>4</v>
@@ -3259,10 +3044,10 @@
         <v>3</v>
       </c>
       <c r="M71" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N71" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O71" s="0" t="s">
         <v>20</v>
@@ -3270,13 +3055,13 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>5</v>
@@ -3288,25 +3073,25 @@
         <v>3</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J72" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K72" s="0" t="n">
         <v>4</v>
       </c>
       <c r="L72" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M72" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N72" s="0" t="n">
         <v>5</v>
@@ -3317,7 +3102,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>19</v>
@@ -3329,34 +3114,34 @@
         <v>5</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J73" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K73" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L73" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M73" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N73" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O73" s="0" t="s">
         <v>20</v>
@@ -3364,16 +3149,16 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>3</v>
@@ -3385,25 +3170,25 @@
         <v>4</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J74" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K74" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L74" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M74" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N74" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O74" s="0" t="s">
         <v>20</v>
@@ -3411,13 +3196,13 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>4</v>
@@ -3426,19 +3211,19 @@
         <v>3</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J75" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K75" s="0" t="n">
         <v>4</v>
@@ -3447,10 +3232,10 @@
         <v>3</v>
       </c>
       <c r="M75" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N75" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O75" s="0" t="s">
         <v>20</v>
@@ -3458,37 +3243,37 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G76" s="0" t="n">
         <v>3</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J76" s="0" t="n">
         <v>2</v>
       </c>
       <c r="K76" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L76" s="0" t="n">
         <v>3</v>
@@ -3505,10 +3290,10 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>3</v>
@@ -3517,31 +3302,31 @@
         <v>4</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I77" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J77" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K77" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L77" s="0" t="n">
         <v>3</v>
       </c>
       <c r="M77" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N77" s="0" t="n">
         <v>3</v>
@@ -3552,7 +3337,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>19</v>
@@ -3561,22 +3346,22 @@
         <v>3</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J78" s="0" t="n">
         <v>3</v>
@@ -3588,233 +3373,149 @@
         <v>3</v>
       </c>
       <c r="M78" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N78" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O78" s="0" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="s">
-        <v>26</v>
+      <c r="A79" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="C79" s="0" t="n">
-        <f aca="false">AVERAGE(C59:C78)</f>
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="D79" s="0" t="n">
-        <f aca="false">AVERAGE(D59:D78)</f>
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="E79" s="0" t="n">
-        <f aca="false">AVERAGE(E59:E78)</f>
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="F79" s="0" t="n">
-        <f aca="false">AVERAGE(F59:F78)</f>
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="G79" s="0" t="n">
-        <f aca="false">AVERAGE(G59:G78)</f>
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H79" s="0" t="n">
-        <f aca="false">AVERAGE(H59:H78)</f>
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="I79" s="0" t="n">
-        <f aca="false">AVERAGE(I59:I78)</f>
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="J79" s="0" t="n">
-        <f aca="false">AVERAGE(J59:J78)</f>
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="K79" s="0" t="n">
-        <f aca="false">AVERAGE(K59:K78)</f>
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L79" s="0" t="n">
-        <f aca="false">AVERAGE(L59:L78)</f>
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="M79" s="0" t="n">
-        <f aca="false">AVERAGE(M59:M78)</f>
-        <v>4.45</v>
+        <v>4</v>
       </c>
       <c r="N79" s="0" t="n">
-        <f aca="false">AVERAGE(N59:N78)</f>
-        <v>3.7</v>
-      </c>
-      <c r="O79" s="0" t="n">
-        <f aca="false">AVERAGE(C79:N79)</f>
-        <v>3.74166666666667</v>
+        <v>4</v>
+      </c>
+      <c r="O79" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C80" s="0" t="n">
-        <f aca="false">VAR(C59:C78)</f>
-        <v>0.344736842105263</v>
+        <f aca="false">AVERAGE(C60:C79)</f>
+        <v>3.15</v>
       </c>
       <c r="D80" s="0" t="n">
-        <f aca="false">VAR(D59:D78)</f>
-        <v>0.778947368421053</v>
+        <f aca="false">AVERAGE(D60:D79)</f>
+        <v>4.4</v>
       </c>
       <c r="E80" s="0" t="n">
-        <f aca="false">VAR(E59:E78)</f>
-        <v>0.471052631578948</v>
+        <f aca="false">AVERAGE(E60:E79)</f>
+        <v>3.55</v>
       </c>
       <c r="F80" s="0" t="n">
-        <f aca="false">VAR(F59:F78)</f>
-        <v>0.407894736842105</v>
+        <f aca="false">AVERAGE(F60:F79)</f>
+        <v>2.75</v>
       </c>
       <c r="G80" s="0" t="n">
-        <f aca="false">VAR(G59:G78)</f>
-        <v>0.568421052631579</v>
+        <f aca="false">AVERAGE(G60:G79)</f>
+        <v>3.4</v>
       </c>
       <c r="H80" s="0" t="n">
-        <f aca="false">VAR(H59:H78)</f>
-        <v>2.30526315789474</v>
+        <f aca="false">AVERAGE(H60:H79)</f>
+        <v>4.9</v>
       </c>
       <c r="I80" s="0" t="n">
-        <f aca="false">VAR(I59:I78)</f>
-        <v>0.463157894736842</v>
+        <f aca="false">AVERAGE(I60:I79)</f>
+        <v>4.4</v>
       </c>
       <c r="J80" s="0" t="n">
-        <f aca="false">VAR(J59:J78)</f>
-        <v>0.871052631578948</v>
+        <f aca="false">AVERAGE(J60:J79)</f>
+        <v>3.15</v>
       </c>
       <c r="K80" s="0" t="n">
-        <f aca="false">VAR(K59:K78)</f>
-        <v>1.04210526315789</v>
+        <f aca="false">AVERAGE(K60:K79)</f>
+        <v>4.1</v>
       </c>
       <c r="L80" s="0" t="n">
-        <f aca="false">VAR(L59:L78)</f>
-        <v>0.471052631578947</v>
+        <f aca="false">AVERAGE(L60:L79)</f>
+        <v>2.95</v>
       </c>
       <c r="M80" s="0" t="n">
-        <f aca="false">VAR(M59:M78)</f>
-        <v>1.20789473684211</v>
+        <f aca="false">AVERAGE(M60:M79)</f>
+        <v>4.45</v>
       </c>
       <c r="N80" s="0" t="n">
-        <f aca="false">VAR(N59:N78)</f>
-        <v>0.852631578947368</v>
+        <f aca="false">AVERAGE(N60:N79)</f>
+        <v>3.7</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C81" s="0" t="n">
-        <f aca="false">TTEST(C33:C52, C59:C78, 2, 3)</f>
+        <f aca="false">TTEST(C34:C53, C60:C79, 2, 3)</f>
         <v>0.863902341843224</v>
-      </c>
-      <c r="D81" s="0" t="n">
-        <f aca="false">TTEST(D33:D52, D59:D78, 2, 3)</f>
-        <v>0.867664136145675</v>
-      </c>
-      <c r="E81" s="0" t="n">
-        <f aca="false">TTEST(E33:E52, E59:E78, 2, 3)</f>
-        <v>0.64760417454673</v>
-      </c>
-      <c r="F81" s="0" t="n">
-        <f aca="false">TTEST(F33:F52, F59:F78, 2, 3)</f>
-        <v>0.0764021232184232</v>
-      </c>
-      <c r="G81" s="0" t="n">
-        <f aca="false">TTEST(G33:G52, G59:G78, 2, 3)</f>
-        <v>0.84755401829217</v>
-      </c>
-      <c r="H81" s="0" t="n">
-        <f aca="false">TTEST(H33:H52, H59:H78, 2, 3)</f>
-        <v>0.830509737492553</v>
-      </c>
-      <c r="I81" s="0" t="n">
-        <f aca="false">TTEST(I33:I52, I59:I78, 2, 3)</f>
-        <v>0.177211699259518</v>
-      </c>
-      <c r="J81" s="0" t="n">
-        <f aca="false">TTEST(J33:J52, J59:J78, 2, 3)</f>
-        <v>0.716130166330596</v>
-      </c>
-      <c r="K81" s="0" t="n">
-        <f aca="false">TTEST(K33:K52, K59:K78, 2, 3)</f>
-        <v>0.783927752992344</v>
-      </c>
-      <c r="L81" s="0" t="n">
-        <f aca="false">TTEST(L33:L52, L59:L78, 2, 3)</f>
-        <v>0.117360237809857</v>
-      </c>
-      <c r="M81" s="0" t="n">
-        <f aca="false">TTEST(M33:M52, M59:M78, 2, 3)</f>
-        <v>0.284162278267865</v>
-      </c>
-      <c r="N81" s="0" t="n">
-        <f aca="false">TTEST(N33:N52, N59:N78, 2, 3)</f>
-        <v>0.213771687501914</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <f aca="false">TTEST(C34:C53, C60:C79, 1, 3)</f>
+        <v>0.431951170921612</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C82" s="0" t="n">
-        <f aca="false">TTEST(C33:C52, C59:C78, 1, 3)</f>
-        <v>0.431951170921612</v>
-      </c>
-      <c r="D82" s="0" t="n">
-        <f aca="false">TTEST(D33:D52, D59:D78, 1, 3)</f>
-        <v>0.433832068072837</v>
-      </c>
-      <c r="E82" s="0" t="n">
-        <f aca="false">TTEST(E33:E52, E59:E78, 1, 3)</f>
-        <v>0.323802087273365</v>
-      </c>
-      <c r="F82" s="0" t="n">
-        <f aca="false">TTEST(F33:F52, F59:F78, 1, 3)</f>
-        <v>0.0382010616092116</v>
-      </c>
-      <c r="G82" s="0" t="n">
-        <f aca="false">TTEST(G33:G52, G59:G78, 1, 3)</f>
-        <v>0.423777009146085</v>
-      </c>
-      <c r="H82" s="0" t="n">
-        <f aca="false">TTEST(H33:H52, H59:H78, 1, 3)</f>
-        <v>0.415254868746276</v>
-      </c>
-      <c r="I82" s="0" t="n">
-        <f aca="false">TTEST(I33:I52, I59:I78, 1, 3)</f>
-        <v>0.0886058496297591</v>
-      </c>
-      <c r="J82" s="0" t="n">
-        <f aca="false">TTEST(J33:J52, J59:J78, 1, 3)</f>
-        <v>0.358065083165298</v>
-      </c>
-      <c r="K82" s="0" t="n">
-        <f aca="false">TTEST(K33:K52, K59:K78, 1, 3)</f>
-        <v>0.391963876496172</v>
-      </c>
-      <c r="L82" s="0" t="n">
-        <f aca="false">TTEST(L33:L52, L59:L78, 1, 3)</f>
-        <v>0.0586801189049286</v>
-      </c>
-      <c r="M82" s="0" t="n">
-        <f aca="false">TTEST(M33:M52, M59:M78, 1, 3)</f>
-        <v>0.142081139133932</v>
-      </c>
-      <c r="N82" s="0" t="n">
-        <f aca="false">TTEST(N33:N52, N59:N78, 1, 3)</f>
-        <v>0.106885843750957</v>
-      </c>
-      <c r="O82" s="0" t="n">
-        <f aca="false">AVERAGE(C82:N82)</f>
-        <v>0.26775834807087</v>
+      <c r="C83" s="0" t="n">
+        <f aca="false">(3.2-3.15)/C55</f>
+        <v>0.0434156726876442</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <f aca="false">TINV(C81, 19)</f>
+        <v>0.173746667337503</v>
       </c>
     </row>
   </sheetData>

--- a/User_tests/User_satisfaction_survey_results.xlsx
+++ b/User_tests/User_satisfaction_survey_results.xlsx
@@ -169,6 +169,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -190,12 +191,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -203,6 +206,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -288,12 +292,12 @@
   <dimension ref="A1:R84"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D55" activeCellId="0" sqref="D55:N55"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
